--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\projects\tbi-gurobi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA565DA-C545-4C7B-8498-6A92CE36CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D35CE5-AB4F-4E87-B534-F6D99FEB4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBI1" sheetId="2" r:id="rId1"/>
@@ -955,23 +955,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94FC568-76DF-4F77-85F3-A558BD135836}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="9" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" customWidth="1"/>
-    <col min="12" max="12" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>46.094006399999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>111</v>
@@ -1101,7 +1101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>891.32</v>
       </c>
       <c r="I11" s="10">
-        <v>891.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>892.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>891.32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1673,10 +1673,10 @@
         <v>400</v>
       </c>
       <c r="I23" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -1760,10 +1760,10 @@
         <v>400</v>
       </c>
       <c r="I26" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0.147025352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>8.5168778000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>4.9008450666666668E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2.8389592666666668E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>11.595000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>225.63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -2431,23 +2431,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B18BCE-5616-443C-A3B0-7B28F9E573B6}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="D1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="9" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" customWidth="1"/>
-    <col min="12" max="12" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>46.094006399999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="18">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="18">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2795,10 +2795,10 @@
         <v>891.32</v>
       </c>
       <c r="I11" s="10">
-        <v>891.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2859,10 +2859,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2888,10 +2888,10 @@
         <v>891.32</v>
       </c>
       <c r="I14" s="20">
-        <v>891.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.147025352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>8.5168778000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>11.595000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>225.63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -3893,6 +3893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3905,18 +3906,18 @@
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.08984375" customWidth="1"/>
-    <col min="3" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="9" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" customWidth="1"/>
-    <col min="12" max="12" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +3948,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>46.094006399999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>891.32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>891.32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>0.147025352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>8.5168778000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>11.595000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>225.63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
